--- a/DateBase/orders/Nhat 48_2026-1-6.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-6.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -780,10 +780,70 @@
       <c r="A41" t="str">
         <v>8</v>
       </c>
+      <c r="C41" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>856_小菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>485_情人草_Limonium/Misty_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>9</v>
+      </c>
+      <c r="C44" t="str">
+        <v>486_水晶草_Limonium_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>10</v>
+      </c>
+      <c r="C46" t="str">
+        <v>633_干花安娜深红_undefined_undefined_1stem</v>
+      </c>
+      <c r="F46" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>633_干花安娜深红_undefined_undefined_1stem</v>
+      </c>
+      <c r="F47" t="str">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L47"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -841,7 +901,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03545516510145106345555812155555558957303383058553520</v>
+        <v>03545516510145106345555812155555558957303383058553521037181054050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-6.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-6.xlsx
@@ -903,6 +903,9 @@
       <c r="G2" t="str">
         <v>03545516510145106345555812155555558957303383058553521037181054050</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
